--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面_rev2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面_rev2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215EC10-6631-4B5C-9E22-BBD2F192416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB0844-5B75-4687-A252-69138DF63588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -399,12 +399,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>402071</t>
-  </si>
-  <si>
-    <t>00402071</t>
   </si>
   <si>
     <t>9</t>
@@ -705,22 +699,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>user_id_col=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>USER_ID_2</t>
-    </r>
-  </si>
-  <si>
     <t>PDF形式で図面がダウンロードされる</t>
     <rPh sb="3" eb="5">
       <t>ケイシキ</t>
@@ -827,39 +805,6 @@
       </rPr>
       <t>USER_ID_5</t>
     </r>
-  </si>
-  <si>
-    <t>USER_MASTER.USER_ID=402071
-登録済み</t>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ズミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USER_ID_CONVERSION.USER_ID=402071
-登録済み</t>
-    <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ズミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USER_ID_CONVERSION.USER_ID_1=00402071
-登録済み</t>
-    <rPh sb="38" eb="40">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">検索画面を開いたときのエラーログ
@@ -1170,10 +1115,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>図面：　00812980460(ACL=11)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">encString=0  126011020080 5 02614408 8 87
 </t>
     <phoneticPr fontId="3"/>
@@ -1406,10 +1347,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NG</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">directPreviewTest.htmlを起動して、
 （１） 外部システムIF(1図番指定)
 ↓ここに図番を入力して図面のダウンロードができます。
@@ -1484,6 +1421,66 @@
     </rPh>
     <rPh sb="149" eb="151">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DRASAP更新プロジェクト2024の機能改修部分の反映
+・パスワードの未設定チェック
+・パスワードの有効期限チェック
+・Hoko2449→JPWDRASOR01
+・Tomcat8→Tomcat9
+機能定義書のあいまいさの排除
+・図番は、ハイフンなしに変更
+（ハイフン除去処理が入っていないので、ハイフン付きでは検索できない）
+</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カイシュウブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ミセッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="99" eb="104">
+      <t>キノウテイギショ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1548,7 +1545,40 @@
 ・ユーザー登録に不備があります。管理者に連絡ください。
 ・その他システムエラーが発生した可能性があります。管理者に連絡ください。
 「Close」
-・ユーザID変換テーブルが指定されていません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・ユーザID変換テーブルが指定されていません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・他のシステムからのログインに失敗しました。begin 0, end 1, length 0</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <rPh sb="229" eb="231">
@@ -1557,63 +1587,225 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">DRASAP更新プロジェクト2024の機能改修部分の反映
-・パスワードの未設定チェック
-・パスワードの有効期限チェック
-・Hoko2449→JPWDRASOR01
-・Tomcat8→Tomcat9
-機能定義書のあいまいさの排除
-・図番は、ハイフンなしに変更
-（ハイフン除去処理が入っていないので、ハイフン付きでは検索できない）
-</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>カイシュウブブン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ミセッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="99" eb="104">
-      <t>キノウテイギショ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ハイジョ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ジョキョ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ケンサク</t>
-    </rPh>
+    <r>
+      <t>user_id_col=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>USER_ID_2</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様修正</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>ユーザ管理マスターのパスワード設定日(USER_MASTER.PASSWD_UPD_DATE)＋パスワード有効期間日数(PWD_LMT_DAY)　</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;　ログイン日(システム日付)</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_MASTER.USER_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296
+登録済み</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID_CONVERSION.USER_ID_1=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00400296
+登録済み</t>
+    </r>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID_CONVERSION.USER_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+登録済み</t>
+    </r>
+    <rPh sb="0" eb="44">
+      <t>トウロクズミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山元　香織</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00400296</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1625,7 +1817,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,6 +1953,14 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1967,7 +2167,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2223,6 +2423,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2575,80 +2781,80 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="54"/>
+    <col min="1" max="1" width="3.25" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="54" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="71" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="70" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="54" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A1" s="50" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A2" s="55">
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" s="73">
         <v>45561</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
     </row>
-    <row r="3" spans="1:7" s="62" customFormat="1" ht="115.75" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" s="62" customFormat="1" ht="120" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
         <v>2</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C3" s="76">
         <v>45616</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A4" s="55">
         <v>3</v>
       </c>
@@ -2659,7 +2865,7 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -2670,7 +2876,7 @@
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A6" s="55">
         <v>5</v>
       </c>
@@ -2681,7 +2887,7 @@
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
     </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A7" s="55">
         <v>6</v>
       </c>
@@ -2692,7 +2898,7 @@
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A8" s="55">
         <v>7</v>
       </c>
@@ -2703,7 +2909,7 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -2714,7 +2920,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A10" s="65">
         <v>9</v>
       </c>
@@ -2725,7 +2931,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A11" s="55">
         <v>10</v>
       </c>
@@ -2736,7 +2942,7 @@
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -2747,7 +2953,7 @@
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" s="72"/>
     </row>
   </sheetData>
@@ -2760,44 +2966,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="43.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" style="1" customWidth="1"/>
-    <col min="10" max="17" width="46.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="84.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.2109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="45.78515625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="43.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.75" style="1" customWidth="1"/>
+    <col min="10" max="17" width="46.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="84.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="45.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:21" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2811,11 +3017,11 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2829,36 +3035,36 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="217.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="98" t="s">
+    <row r="5" spans="1:21" ht="217.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="82" t="s">
         <v>22</v>
       </c>
@@ -2867,11 +3073,11 @@
       <c r="G6" s="83"/>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="88" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
@@ -2899,9 +3105,9 @@
       <c r="I7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="87"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>65</v>
       </c>
@@ -2931,7 +3137,7 @@
       </c>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>67</v>
       </c>
@@ -2963,7 +3169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>68</v>
       </c>
@@ -2995,7 +3201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>69</v>
       </c>
@@ -3027,7 +3233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>70</v>
       </c>
@@ -3059,7 +3265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>73</v>
       </c>
@@ -3091,7 +3297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>75</v>
       </c>
@@ -3123,24 +3329,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>78</v>
+      <c r="B15" s="87" t="s">
+        <v>182</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>78</v>
+        <v>184</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>33</v>
@@ -3154,25 +3360,29 @@
       <c r="J15" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>33</v>
@@ -3187,7 +3397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3196,15 +3406,15 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="30"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="86" t="s">
-        <v>83</v>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="88" t="s">
+        <v>81</v>
       </c>
       <c r="F18" s="82" t="s">
         <v>21</v>
@@ -3216,7 +3426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>25</v>
@@ -3227,7 +3437,7 @@
       <c r="D19" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="23" t="s">
         <v>53</v>
       </c>
@@ -3241,10 +3451,10 @@
         <v>56</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A20" s="29"/>
       <c r="B20" s="26">
         <v>123456</v>
@@ -3253,28 +3463,28 @@
         <v>35</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="I20" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="29"/>
       <c r="B21" s="26" t="s">
         <v>37</v>
@@ -3283,7 +3493,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>59</v>
@@ -3304,7 +3514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>71</v>
@@ -3334,7 +3544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>74</v>
@@ -3343,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>59</v>
@@ -3364,7 +3574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>76</v>
@@ -3373,7 +3583,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>57</v>
@@ -3394,16 +3604,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>63</v>
@@ -3424,16 +3634,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>59</v>
@@ -3454,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="29"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
@@ -3470,7 +3680,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -3480,7 +3690,7 @@
       <c r="G28" s="81"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:22" ht="15.45" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:22" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
@@ -3490,16 +3700,16 @@
       <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -3522,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="200.6" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:22" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A30" s="40">
         <v>1</v>
       </c>
@@ -3533,52 +3743,58 @@
         <v>14</v>
       </c>
       <c r="D30" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>97</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="M30" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>101</v>
-      </c>
       <c r="N30" s="41" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P30" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="41"/>
       <c r="R30" s="80" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="S30" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="46"/>
-    </row>
-    <row r="31" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+        <v>175</v>
+      </c>
+      <c r="T30" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U30" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V30" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>2</v>
       </c>
@@ -3598,17 +3814,17 @@
       <c r="O31" s="41"/>
       <c r="P31" s="41"/>
       <c r="Q31" s="41" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="R31" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S31" s="44"/>
       <c r="T31" s="45"/>
       <c r="U31" s="44"/>
       <c r="V31" s="46"/>
     </row>
-    <row r="32" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A32" s="40">
         <v>3</v>
       </c>
@@ -3623,28 +3839,34 @@
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="S32" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T32" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V32" s="46"/>
     </row>
-    <row r="33" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A33" s="40">
         <v>4</v>
       </c>
@@ -3664,17 +3886,23 @@
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
       <c r="Q33" s="41" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="R33" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="S33" s="44"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="S33" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V33" s="46"/>
     </row>
-    <row r="34" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A34" s="40">
         <v>5</v>
       </c>
@@ -3686,35 +3914,35 @@
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K34" s="42"/>
       <c r="L34" s="41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M34" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="41"/>
       <c r="R34" s="47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="S34" s="44"/>
       <c r="T34" s="45"/>
       <c r="U34" s="44"/>
       <c r="V34" s="46"/>
     </row>
-    <row r="35" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>6</v>
       </c>
@@ -3734,17 +3962,17 @@
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
       <c r="Q35" s="41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R35" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S35" s="44"/>
       <c r="T35" s="45"/>
       <c r="U35" s="44"/>
       <c r="V35" s="46"/>
     </row>
-    <row r="36" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>7</v>
       </c>
@@ -3753,40 +3981,40 @@
       <c r="D36" s="42"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="41" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S36" s="44"/>
       <c r="T36" s="45"/>
       <c r="U36" s="44"/>
       <c r="V36" s="46"/>
     </row>
-    <row r="37" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A37" s="40">
         <v>8</v>
       </c>
@@ -3806,17 +4034,17 @@
       <c r="O37" s="41"/>
       <c r="P37" s="41"/>
       <c r="Q37" s="41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R37" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S37" s="44"/>
       <c r="T37" s="45"/>
       <c r="U37" s="44"/>
       <c r="V37" s="46"/>
     </row>
-    <row r="38" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A38" s="40">
         <v>9</v>
       </c>
@@ -3826,35 +4054,41 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="79" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
       <c r="M38" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P38" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="44"/>
+        <v>163</v>
+      </c>
+      <c r="S38" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T38" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U38" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V38" s="46"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
         <v>10</v>
       </c>
@@ -3875,14 +4109,20 @@
       <c r="P39" s="41"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="44"/>
+        <v>164</v>
+      </c>
+      <c r="S39" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T39" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U39" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V39" s="46"/>
     </row>
-    <row r="40" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A40" s="40">
         <v>11</v>
       </c>
@@ -3892,10 +4132,10 @@
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
       <c r="G40" s="79" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
@@ -3907,14 +4147,20 @@
       <c r="P40" s="41"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="S40" s="44"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="44"/>
+        <v>148</v>
+      </c>
+      <c r="S40" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T40" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U40" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V40" s="46"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="40">
         <v>12</v>
       </c>
@@ -3935,14 +4181,20 @@
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="S41" s="44"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="S41" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T41" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U41" s="44" t="s">
+        <v>176</v>
+      </c>
       <c r="V41" s="46"/>
     </row>
-    <row r="42" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A42" s="40">
         <v>13</v>
       </c>
@@ -3963,14 +4215,14 @@
       <c r="P42" s="41"/>
       <c r="Q42" s="41"/>
       <c r="R42" s="47" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="S42" s="44"/>
       <c r="T42" s="45"/>
       <c r="U42" s="44"/>
       <c r="V42" s="46"/>
     </row>
-    <row r="43" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A43" s="40">
         <v>14</v>
       </c>
@@ -3987,24 +4239,24 @@
       <c r="L43" s="41"/>
       <c r="M43" s="42"/>
       <c r="N43" s="41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O43" s="41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q43" s="41"/>
       <c r="R43" s="43" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="S43" s="44"/>
       <c r="T43" s="45"/>
       <c r="U43" s="44"/>
       <c r="V43" s="46"/>
     </row>
-    <row r="44" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A44" s="40">
         <v>15</v>
       </c>
@@ -4024,17 +4276,17 @@
       <c r="O44" s="41"/>
       <c r="P44" s="41"/>
       <c r="Q44" s="41" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R44" s="43" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="S44" s="44"/>
       <c r="T44" s="45"/>
       <c r="U44" s="44"/>
       <c r="V44" s="46"/>
     </row>
-    <row r="45" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>16</v>
       </c>
@@ -4051,24 +4303,24 @@
       <c r="L45" s="41"/>
       <c r="M45" s="42"/>
       <c r="N45" s="41" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O45" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q45" s="42"/>
       <c r="R45" s="43" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="S45" s="44"/>
       <c r="T45" s="45"/>
       <c r="U45" s="44"/>
       <c r="V45" s="46"/>
     </row>
-    <row r="46" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A46" s="40">
         <v>17</v>
       </c>
@@ -4088,17 +4340,17 @@
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R46" s="43" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S46" s="44"/>
       <c r="T46" s="45"/>
       <c r="U46" s="44"/>
       <c r="V46" s="46"/>
     </row>
-    <row r="47" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A47" s="40">
         <v>18</v>
       </c>
@@ -4107,46 +4359,54 @@
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
       <c r="F47" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="G47" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="H47" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="J47" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="41" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M47" s="42" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="N47" s="41" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O47" s="41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P47" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="41"/>
       <c r="R47" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="S47" s="44"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="46"/>
-    </row>
-    <row r="48" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+        <v>112</v>
+      </c>
+      <c r="S47" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T47" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U47" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V47" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A48" s="40">
         <v>19</v>
       </c>
@@ -4166,17 +4426,17 @@
       <c r="O48" s="41"/>
       <c r="P48" s="41"/>
       <c r="Q48" s="41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R48" s="43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S48" s="44"/>
       <c r="T48" s="45"/>
       <c r="U48" s="44"/>
       <c r="V48" s="46"/>
     </row>
-    <row r="49" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A49" s="40">
         <v>20</v>
       </c>
@@ -4185,46 +4445,54 @@
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
       <c r="F49" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G49" s="79" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H49" s="79" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I49" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J49" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="41" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N49" s="41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O49" s="41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="42"/>
       <c r="R49" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="S49" s="44"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="46"/>
-    </row>
-    <row r="50" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+        <v>142</v>
+      </c>
+      <c r="S49" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T49" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U49" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V49" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A50" s="40">
         <v>21</v>
       </c>
@@ -4244,17 +4512,17 @@
       <c r="O50" s="41"/>
       <c r="P50" s="41"/>
       <c r="Q50" s="41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R50" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S50" s="44"/>
       <c r="T50" s="45"/>
       <c r="U50" s="44"/>
       <c r="V50" s="46"/>
     </row>
-    <row r="51" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A51" s="40">
         <v>22</v>
       </c>
@@ -4263,46 +4531,54 @@
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
       <c r="F51" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G51" s="79" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H51" s="79" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I51" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J51" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N51" s="41" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O51" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P51" s="41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q51" s="42"/>
       <c r="R51" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="S51" s="44"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="46"/>
-    </row>
-    <row r="52" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+        <v>142</v>
+      </c>
+      <c r="S51" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T51" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U51" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V51" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>23</v>
       </c>
@@ -4322,17 +4598,17 @@
       <c r="O52" s="41"/>
       <c r="P52" s="41"/>
       <c r="Q52" s="41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R52" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="45"/>
       <c r="U52" s="44"/>
       <c r="V52" s="46"/>
     </row>
-    <row r="53" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A53" s="40">
         <v>24</v>
       </c>
@@ -4341,44 +4617,52 @@
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="F53" s="41" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="G53" s="79" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H53" s="79" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="41" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N53" s="41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O53" s="41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P53" s="41"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="S53" s="44"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="46"/>
-    </row>
-    <row r="54" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+        <v>107</v>
+      </c>
+      <c r="S53" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="T53" s="45">
+        <v>45644</v>
+      </c>
+      <c r="U53" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V53" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A54" s="40">
         <v>25</v>
       </c>
@@ -4398,10 +4682,10 @@
       <c r="O54" s="41"/>
       <c r="P54" s="41"/>
       <c r="Q54" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R54" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S54" s="44"/>
       <c r="T54" s="45"/>
@@ -4651,15 +4935,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -4670,14 +4945,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C676D0C-0668-4074-A507-1DC40E01D6AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C676D0C-0668-4074-A507-1DC40E01D6AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32BD3D4A-3DE3-418A-86DE-6AE64EC23D2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D2C183C-31E2-402A-85E2-987857890767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D2C183C-31E2-402A-85E2-987857890767}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32BD3D4A-3DE3-418A-86DE-6AE64EC23D2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>